--- a/pdfs/output/extracted_data_invoicesample.xlsx
+++ b/pdfs/output/extracted_data_invoicesample.xlsx
@@ -474,7 +474,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -517,73 +517,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>serial_number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>hsn_sac</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>quantity</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>unit_price</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>total_amount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Somewhere</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>St,</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/pdfs/output/extracted_data_invoicesample.xlsx
+++ b/pdfs/output/extracted_data_invoicesample.xlsx
@@ -474,7 +474,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Number</t>
+          <t>420130304</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>odubetiesum</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
